--- a/doc/QA检查表.xlsx
+++ b/doc/QA检查表.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21425"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A3B8D3B-CA34-445D-A9F9-2C6FA1F1384C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>组别</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -78,15 +79,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>第一组(张三)</t>
+    <t>第三组(栗梦祥)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>韩水言</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -179,11 +184,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -191,20 +199,25 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -246,7 +259,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -278,9 +291,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -312,6 +343,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -487,16 +536,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="12.375" customWidth="1"/>
+    <col min="1" max="1" width="13.625" customWidth="1"/>
     <col min="2" max="2" width="11.875" customWidth="1"/>
     <col min="3" max="3" width="12.75" customWidth="1"/>
     <col min="4" max="4" width="12.25" customWidth="1"/>
@@ -508,65 +557,65 @@
     <col min="11" max="11" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2" t="s">
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2" t="s">
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="2"/>
-      <c r="J1" s="4" t="s">
+      <c r="I1" s="4"/>
+      <c r="J1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3" t="s">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A2" s="4"/>
+      <c r="B2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="5"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="J2" s="6"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>15</v>
       </c>
@@ -574,36 +623,38 @@
         <v>10</v>
       </c>
       <c r="C3" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D3" s="1">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E3" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F3" s="1">
         <v>15</v>
       </c>
       <c r="G3" s="1">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="H3" s="1">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="I3" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J3" s="1">
         <f>SUM(B3:I3)</f>
-        <v>76</v>
-      </c>
-      <c r="K3" s="6">
-        <v>42970</v>
-      </c>
-      <c r="L3" s="1"/>
-    </row>
-    <row r="4" spans="1:12">
+        <v>78</v>
+      </c>
+      <c r="K3" s="3">
+        <v>43577</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -617,7 +668,7 @@
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -631,7 +682,7 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -645,7 +696,7 @@
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -659,7 +710,7 @@
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -673,7 +724,7 @@
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -687,7 +738,7 @@
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -701,7 +752,7 @@
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -715,7 +766,7 @@
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -729,7 +780,7 @@
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -745,13 +796,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="H1:I1"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="L1:L2"/>
     <mergeCell ref="J1:J2"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:I1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -760,12 +811,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -774,12 +825,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
